--- a/biology/Botanique/Cirse_de_Montpellier/Cirse_de_Montpellier.xlsx
+++ b/biology/Botanique/Cirse_de_Montpellier/Cirse_de_Montpellier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirsium monspessulanum
 Le Cirse de Montpellier (Cirsium monspessulanum) est une espèce de plantes à fleurs de la famille des Astéracées (Composées).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>plante herbacée vivace - haute de 5-15 dm, dressée, un peu aranéeuse
 - feuilles entières ou faiblement sinuées, oblongues-lancéolées ou lancéolées aiguës, ciliées-spinuleuses, non épineuses, vertes et glabres sur les deux faces, assez brièvement décurrentes, les supérieures non décurrentes 
@@ -521,7 +535,7 @@
 - fleurs purpurines.
 Écologie : lieux humides, bords des ruisseaux, des Alpes-Maritimes aux Pyrénées centrales, remonte dans la Savoie, l'Isère, la Drôme, l'Ardèche, l'Aveyron.
 Répartition : Espagne, Italie, Algérie.
-Floraison : juin-août[1].</t>
+Floraison : juin-août.</t>
         </is>
       </c>
     </row>
@@ -549,7 +563,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence: racème de capitules
